--- a/uploads/excel/RKAP Tempalate Fix.xlsx
+++ b/uploads/excel/RKAP Tempalate Fix.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A5046-1709-4EE8-A7B2-2E4609E7C4F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7449FC0-7E6B-4E93-8648-6D49D0DC625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10530" yWindow="990" windowWidth="14205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="2910" windowWidth="14205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="td2023" sheetId="1" r:id="rId1"/>
+    <sheet name="rkap" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -2135,8 +2135,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2202,40 +2202,40 @@
         <v>40010001</v>
       </c>
       <c r="D2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O2" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="6"/>
@@ -2251,40 +2251,40 @@
         <v>40012000</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O3" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
@@ -2300,40 +2300,40 @@
         <v>40020001</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O4" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
@@ -2349,40 +2349,40 @@
         <v>40014200</v>
       </c>
       <c r="D5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O5" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="7"/>
@@ -2398,40 +2398,40 @@
         <v>40000000</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O6" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="7"/>
@@ -2447,40 +2447,40 @@
         <v>40002002</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O7" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="7"/>
@@ -2496,40 +2496,40 @@
         <v>40000400</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O8" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="7"/>
@@ -2545,40 +2545,40 @@
         <v>40000403</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O9" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="7"/>
@@ -2594,40 +2594,40 @@
         <v>40030000</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O10" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
@@ -2643,40 +2643,40 @@
         <v>40030001</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O11" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="7"/>
@@ -2692,40 +2692,40 @@
         <v>40040000</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O12" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="7"/>
@@ -2741,40 +2741,40 @@
         <v>40040005</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O13" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="7"/>
@@ -2790,40 +2790,40 @@
         <v>40041002</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O14" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2837,40 +2837,40 @@
         <v>40041000</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O15" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2884,40 +2884,40 @@
         <v>40043000</v>
       </c>
       <c r="D16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O16" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2931,40 +2931,40 @@
         <v>40043006</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O17" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,40 +2978,40 @@
         <v>40010001</v>
       </c>
       <c r="D18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O18" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3025,40 +3025,40 @@
         <v>40012000</v>
       </c>
       <c r="D19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O19" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3072,40 +3072,40 @@
         <v>40020001</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3119,40 +3119,40 @@
         <v>40014200</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O21" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3166,40 +3166,40 @@
         <v>40000000</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O22" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3213,40 +3213,40 @@
         <v>40002002</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O23" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,40 +3260,40 @@
         <v>40000400</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O24" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3307,40 +3307,40 @@
         <v>40000403</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O25" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3354,40 +3354,40 @@
         <v>40030000</v>
       </c>
       <c r="D26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O26" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3401,40 +3401,40 @@
         <v>40030001</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O27" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,40 +3448,40 @@
         <v>40040000</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O28" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3495,40 +3495,40 @@
         <v>40040005</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O29" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,40 +3542,40 @@
         <v>40041002</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O30" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3589,40 +3589,40 @@
         <v>40041000</v>
       </c>
       <c r="D31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O31" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3636,40 +3636,40 @@
         <v>40043000</v>
       </c>
       <c r="D32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O32" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3683,40 +3683,40 @@
         <v>40043006</v>
       </c>
       <c r="D33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O33" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3730,40 +3730,40 @@
         <v>40010001</v>
       </c>
       <c r="D34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O34" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3777,40 +3777,40 @@
         <v>40012000</v>
       </c>
       <c r="D35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O35" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3824,40 +3824,40 @@
         <v>40020001</v>
       </c>
       <c r="D36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O36" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3871,40 +3871,40 @@
         <v>40014200</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O37" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -3918,40 +3918,40 @@
         <v>40000000</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O38" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -3965,40 +3965,40 @@
         <v>40002002</v>
       </c>
       <c r="D39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O39" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -4012,40 +4012,40 @@
         <v>40000400</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O40" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -4059,40 +4059,40 @@
         <v>40000403</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O41" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -4106,40 +4106,40 @@
         <v>40030000</v>
       </c>
       <c r="D42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O42" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4153,40 +4153,40 @@
         <v>40030001</v>
       </c>
       <c r="D43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O43" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4200,40 +4200,40 @@
         <v>40040000</v>
       </c>
       <c r="D44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O44" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4247,40 +4247,40 @@
         <v>40040005</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O45" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4294,40 +4294,40 @@
         <v>40041002</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O46" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4341,40 +4341,40 @@
         <v>40041000</v>
       </c>
       <c r="D47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O47" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4388,40 +4388,40 @@
         <v>40043000</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4435,40 +4435,40 @@
         <v>40043006</v>
       </c>
       <c r="D49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="K49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="L49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="N49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O49" s="3">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4483,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6862,55 +6862,55 @@
       </c>
       <c r="C2" s="8">
         <f t="shared" ref="C2:O2" si="0">SUM(C3:C4)</f>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O2" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -6919,55 +6919,55 @@
       </c>
       <c r="C3" s="5">
         <f>SUM(D3:O3)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D3" s="5">
-        <f>'td2023'!D2</f>
-        <v>1</v>
+        <f>rkap!D2</f>
+        <v>1000</v>
       </c>
       <c r="E3" s="5">
-        <f>'td2023'!E2</f>
-        <v>1</v>
+        <f>rkap!E2</f>
+        <v>1000</v>
       </c>
       <c r="F3" s="5">
-        <f>'td2023'!F2</f>
-        <v>1</v>
+        <f>rkap!F2</f>
+        <v>1000</v>
       </c>
       <c r="G3" s="5">
-        <f>'td2023'!G2</f>
-        <v>1</v>
+        <f>rkap!G2</f>
+        <v>1000</v>
       </c>
       <c r="H3" s="5">
-        <f>'td2023'!H2</f>
-        <v>1</v>
+        <f>rkap!H2</f>
+        <v>1000</v>
       </c>
       <c r="I3" s="5">
-        <f>'td2023'!I2</f>
-        <v>1</v>
+        <f>rkap!I2</f>
+        <v>1000</v>
       </c>
       <c r="J3" s="5">
-        <f>'td2023'!J2</f>
-        <v>1</v>
+        <f>rkap!J2</f>
+        <v>1000</v>
       </c>
       <c r="K3" s="5">
-        <f>'td2023'!K2</f>
-        <v>1</v>
+        <f>rkap!K2</f>
+        <v>1000</v>
       </c>
       <c r="L3" s="5">
-        <f>'td2023'!L2</f>
-        <v>1</v>
+        <f>rkap!L2</f>
+        <v>1000</v>
       </c>
       <c r="M3" s="5">
-        <f>'td2023'!M2</f>
-        <v>1</v>
+        <f>rkap!M2</f>
+        <v>1000</v>
       </c>
       <c r="N3" s="5">
-        <f>'td2023'!N2</f>
-        <v>1</v>
+        <f>rkap!N2</f>
+        <v>1000</v>
       </c>
       <c r="O3" s="5">
-        <f>'td2023'!O2</f>
-        <v>1</v>
+        <f>rkap!O2</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -6976,55 +6976,55 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D4:O4)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D4" s="5">
-        <f>'td2023'!D3</f>
-        <v>1</v>
+        <f>rkap!D3</f>
+        <v>1000</v>
       </c>
       <c r="E4" s="5">
-        <f>'td2023'!E3</f>
-        <v>1</v>
+        <f>rkap!E3</f>
+        <v>1000</v>
       </c>
       <c r="F4" s="5">
-        <f>'td2023'!F3</f>
-        <v>1</v>
+        <f>rkap!F3</f>
+        <v>1000</v>
       </c>
       <c r="G4" s="5">
-        <f>'td2023'!G3</f>
-        <v>1</v>
+        <f>rkap!G3</f>
+        <v>1000</v>
       </c>
       <c r="H4" s="5">
-        <f>'td2023'!H3</f>
-        <v>1</v>
+        <f>rkap!H3</f>
+        <v>1000</v>
       </c>
       <c r="I4" s="5">
-        <f>'td2023'!I3</f>
-        <v>1</v>
+        <f>rkap!I3</f>
+        <v>1000</v>
       </c>
       <c r="J4" s="5">
-        <f>'td2023'!J3</f>
-        <v>1</v>
+        <f>rkap!J3</f>
+        <v>1000</v>
       </c>
       <c r="K4" s="5">
-        <f>'td2023'!K3</f>
-        <v>1</v>
+        <f>rkap!K3</f>
+        <v>1000</v>
       </c>
       <c r="L4" s="5">
-        <f>'td2023'!L3</f>
-        <v>1</v>
+        <f>rkap!L3</f>
+        <v>1000</v>
       </c>
       <c r="M4" s="5">
-        <f>'td2023'!M3</f>
-        <v>1</v>
+        <f>rkap!M3</f>
+        <v>1000</v>
       </c>
       <c r="N4" s="5">
-        <f>'td2023'!N3</f>
-        <v>1</v>
+        <f>rkap!N3</f>
+        <v>1000</v>
       </c>
       <c r="O4" s="5">
-        <f>'td2023'!O3</f>
-        <v>1</v>
+        <f>rkap!O3</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -7033,55 +7033,55 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:O5" si="1">SUM(C6:C7)</f>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O5" s="8">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -7090,55 +7090,55 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D6:O6)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D6" s="5">
-        <f>'td2023'!D4</f>
-        <v>1</v>
+        <f>rkap!D4</f>
+        <v>1000</v>
       </c>
       <c r="E6" s="5">
-        <f>'td2023'!E4</f>
-        <v>1</v>
+        <f>rkap!E4</f>
+        <v>1000</v>
       </c>
       <c r="F6" s="5">
-        <f>'td2023'!F4</f>
-        <v>1</v>
+        <f>rkap!F4</f>
+        <v>1000</v>
       </c>
       <c r="G6" s="5">
-        <f>'td2023'!G4</f>
-        <v>1</v>
+        <f>rkap!G4</f>
+        <v>1000</v>
       </c>
       <c r="H6" s="5">
-        <f>'td2023'!H4</f>
-        <v>1</v>
+        <f>rkap!H4</f>
+        <v>1000</v>
       </c>
       <c r="I6" s="5">
-        <f>'td2023'!I4</f>
-        <v>1</v>
+        <f>rkap!I4</f>
+        <v>1000</v>
       </c>
       <c r="J6" s="5">
-        <f>'td2023'!J4</f>
-        <v>1</v>
+        <f>rkap!J4</f>
+        <v>1000</v>
       </c>
       <c r="K6" s="5">
-        <f>'td2023'!K4</f>
-        <v>1</v>
+        <f>rkap!K4</f>
+        <v>1000</v>
       </c>
       <c r="L6" s="5">
-        <f>'td2023'!L4</f>
-        <v>1</v>
+        <f>rkap!L4</f>
+        <v>1000</v>
       </c>
       <c r="M6" s="5">
-        <f>'td2023'!M4</f>
-        <v>1</v>
+        <f>rkap!M4</f>
+        <v>1000</v>
       </c>
       <c r="N6" s="5">
-        <f>'td2023'!N4</f>
-        <v>1</v>
+        <f>rkap!N4</f>
+        <v>1000</v>
       </c>
       <c r="O6" s="5">
-        <f>'td2023'!O4</f>
-        <v>1</v>
+        <f>rkap!O4</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -7147,55 +7147,55 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D7:O7)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D7" s="5">
-        <f>'td2023'!D5</f>
-        <v>1</v>
+        <f>rkap!D5</f>
+        <v>1000</v>
       </c>
       <c r="E7" s="5">
-        <f>'td2023'!E5</f>
-        <v>1</v>
+        <f>rkap!E5</f>
+        <v>1000</v>
       </c>
       <c r="F7" s="5">
-        <f>'td2023'!F5</f>
-        <v>1</v>
+        <f>rkap!F5</f>
+        <v>1000</v>
       </c>
       <c r="G7" s="5">
-        <f>'td2023'!G5</f>
-        <v>1</v>
+        <f>rkap!G5</f>
+        <v>1000</v>
       </c>
       <c r="H7" s="5">
-        <f>'td2023'!H5</f>
-        <v>1</v>
+        <f>rkap!H5</f>
+        <v>1000</v>
       </c>
       <c r="I7" s="5">
-        <f>'td2023'!I5</f>
-        <v>1</v>
+        <f>rkap!I5</f>
+        <v>1000</v>
       </c>
       <c r="J7" s="5">
-        <f>'td2023'!J5</f>
-        <v>1</v>
+        <f>rkap!J5</f>
+        <v>1000</v>
       </c>
       <c r="K7" s="5">
-        <f>'td2023'!K5</f>
-        <v>1</v>
+        <f>rkap!K5</f>
+        <v>1000</v>
       </c>
       <c r="L7" s="5">
-        <f>'td2023'!L5</f>
-        <v>1</v>
+        <f>rkap!L5</f>
+        <v>1000</v>
       </c>
       <c r="M7" s="5">
-        <f>'td2023'!M5</f>
-        <v>1</v>
+        <f>rkap!M5</f>
+        <v>1000</v>
       </c>
       <c r="N7" s="5">
-        <f>'td2023'!N5</f>
-        <v>1</v>
+        <f>rkap!N5</f>
+        <v>1000</v>
       </c>
       <c r="O7" s="5">
-        <f>'td2023'!O5</f>
-        <v>1</v>
+        <f>rkap!O5</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -7204,55 +7204,55 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:O8" si="2">SUM(C9:C10)</f>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -7261,55 +7261,55 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D9:O9)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D9" s="5">
-        <f>'td2023'!D6</f>
-        <v>1</v>
+        <f>rkap!D6</f>
+        <v>1000</v>
       </c>
       <c r="E9" s="5">
-        <f>'td2023'!E6</f>
-        <v>1</v>
+        <f>rkap!E6</f>
+        <v>1000</v>
       </c>
       <c r="F9" s="5">
-        <f>'td2023'!F6</f>
-        <v>1</v>
+        <f>rkap!F6</f>
+        <v>1000</v>
       </c>
       <c r="G9" s="5">
-        <f>'td2023'!G6</f>
-        <v>1</v>
+        <f>rkap!G6</f>
+        <v>1000</v>
       </c>
       <c r="H9" s="5">
-        <f>'td2023'!H6</f>
-        <v>1</v>
+        <f>rkap!H6</f>
+        <v>1000</v>
       </c>
       <c r="I9" s="5">
-        <f>'td2023'!I6</f>
-        <v>1</v>
+        <f>rkap!I6</f>
+        <v>1000</v>
       </c>
       <c r="J9" s="5">
-        <f>'td2023'!J6</f>
-        <v>1</v>
+        <f>rkap!J6</f>
+        <v>1000</v>
       </c>
       <c r="K9" s="5">
-        <f>'td2023'!K6</f>
-        <v>1</v>
+        <f>rkap!K6</f>
+        <v>1000</v>
       </c>
       <c r="L9" s="5">
-        <f>'td2023'!L6</f>
-        <v>1</v>
+        <f>rkap!L6</f>
+        <v>1000</v>
       </c>
       <c r="M9" s="5">
-        <f>'td2023'!M6</f>
-        <v>1</v>
+        <f>rkap!M6</f>
+        <v>1000</v>
       </c>
       <c r="N9" s="5">
-        <f>'td2023'!N6</f>
-        <v>1</v>
+        <f>rkap!N6</f>
+        <v>1000</v>
       </c>
       <c r="O9" s="5">
-        <f>'td2023'!O6</f>
-        <v>1</v>
+        <f>rkap!O6</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -7318,55 +7318,55 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D10:O10)</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D10" s="5">
-        <f>'td2023'!D7</f>
-        <v>1</v>
+        <f>rkap!D7</f>
+        <v>1000</v>
       </c>
       <c r="E10" s="5">
-        <f>'td2023'!E7</f>
-        <v>1</v>
+        <f>rkap!E7</f>
+        <v>1000</v>
       </c>
       <c r="F10" s="5">
-        <f>'td2023'!F7</f>
-        <v>1</v>
+        <f>rkap!F7</f>
+        <v>1000</v>
       </c>
       <c r="G10" s="5">
-        <f>'td2023'!G7</f>
-        <v>1</v>
+        <f>rkap!G7</f>
+        <v>1000</v>
       </c>
       <c r="H10" s="5">
-        <f>'td2023'!H7</f>
-        <v>1</v>
+        <f>rkap!H7</f>
+        <v>1000</v>
       </c>
       <c r="I10" s="5">
-        <f>'td2023'!I7</f>
-        <v>1</v>
+        <f>rkap!I7</f>
+        <v>1000</v>
       </c>
       <c r="J10" s="5">
-        <f>'td2023'!J7</f>
-        <v>1</v>
+        <f>rkap!J7</f>
+        <v>1000</v>
       </c>
       <c r="K10" s="5">
-        <f>'td2023'!K7</f>
-        <v>1</v>
+        <f>rkap!K7</f>
+        <v>1000</v>
       </c>
       <c r="L10" s="5">
-        <f>'td2023'!L7</f>
-        <v>1</v>
+        <f>rkap!L7</f>
+        <v>1000</v>
       </c>
       <c r="M10" s="5">
-        <f>'td2023'!M7</f>
-        <v>1</v>
+        <f>rkap!M7</f>
+        <v>1000</v>
       </c>
       <c r="N10" s="5">
-        <f>'td2023'!N7</f>
-        <v>1</v>
+        <f>rkap!N7</f>
+        <v>1000</v>
       </c>
       <c r="O10" s="5">
-        <f>'td2023'!O7</f>
-        <v>1</v>
+        <f>rkap!O7</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -7394,55 +7394,55 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:C20" si="3">SUM(D12:O12)</f>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ref="D12:O12" si="4">SUM(D13:D14)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O12" s="8">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -7451,55 +7451,55 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D13" s="5">
-        <f>'td2023'!D18</f>
-        <v>1</v>
+        <f>rkap!D18</f>
+        <v>1000</v>
       </c>
       <c r="E13" s="5">
-        <f>'td2023'!E18</f>
-        <v>1</v>
+        <f>rkap!E18</f>
+        <v>1000</v>
       </c>
       <c r="F13" s="5">
-        <f>'td2023'!F18</f>
-        <v>1</v>
+        <f>rkap!F18</f>
+        <v>1000</v>
       </c>
       <c r="G13" s="5">
-        <f>'td2023'!G18</f>
-        <v>1</v>
+        <f>rkap!G18</f>
+        <v>1000</v>
       </c>
       <c r="H13" s="5">
-        <f>'td2023'!H18</f>
-        <v>1</v>
+        <f>rkap!H18</f>
+        <v>1000</v>
       </c>
       <c r="I13" s="5">
-        <f>'td2023'!I18</f>
-        <v>1</v>
+        <f>rkap!I18</f>
+        <v>1000</v>
       </c>
       <c r="J13" s="5">
-        <f>'td2023'!J18</f>
-        <v>1</v>
+        <f>rkap!J18</f>
+        <v>1000</v>
       </c>
       <c r="K13" s="5">
-        <f>'td2023'!K18</f>
-        <v>1</v>
+        <f>rkap!K18</f>
+        <v>1000</v>
       </c>
       <c r="L13" s="5">
-        <f>'td2023'!L18</f>
-        <v>1</v>
+        <f>rkap!L18</f>
+        <v>1000</v>
       </c>
       <c r="M13" s="5">
-        <f>'td2023'!M18</f>
-        <v>1</v>
+        <f>rkap!M18</f>
+        <v>1000</v>
       </c>
       <c r="N13" s="5">
-        <f>'td2023'!N18</f>
-        <v>1</v>
+        <f>rkap!N18</f>
+        <v>1000</v>
       </c>
       <c r="O13" s="5">
-        <f>'td2023'!O18</f>
-        <v>1</v>
+        <f>rkap!O18</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -7508,55 +7508,55 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D14" s="5">
-        <f>'td2023'!D19</f>
-        <v>1</v>
+        <f>rkap!D19</f>
+        <v>1000</v>
       </c>
       <c r="E14" s="5">
-        <f>'td2023'!E19</f>
-        <v>1</v>
+        <f>rkap!E19</f>
+        <v>1000</v>
       </c>
       <c r="F14" s="5">
-        <f>'td2023'!F19</f>
-        <v>1</v>
+        <f>rkap!F19</f>
+        <v>1000</v>
       </c>
       <c r="G14" s="5">
-        <f>'td2023'!G19</f>
-        <v>1</v>
+        <f>rkap!G19</f>
+        <v>1000</v>
       </c>
       <c r="H14" s="5">
-        <f>'td2023'!H19</f>
-        <v>1</v>
+        <f>rkap!H19</f>
+        <v>1000</v>
       </c>
       <c r="I14" s="5">
-        <f>'td2023'!I19</f>
-        <v>1</v>
+        <f>rkap!I19</f>
+        <v>1000</v>
       </c>
       <c r="J14" s="5">
-        <f>'td2023'!J19</f>
-        <v>1</v>
+        <f>rkap!J19</f>
+        <v>1000</v>
       </c>
       <c r="K14" s="5">
-        <f>'td2023'!K19</f>
-        <v>1</v>
+        <f>rkap!K19</f>
+        <v>1000</v>
       </c>
       <c r="L14" s="5">
-        <f>'td2023'!L19</f>
-        <v>1</v>
+        <f>rkap!L19</f>
+        <v>1000</v>
       </c>
       <c r="M14" s="5">
-        <f>'td2023'!M19</f>
-        <v>1</v>
+        <f>rkap!M19</f>
+        <v>1000</v>
       </c>
       <c r="N14" s="5">
-        <f>'td2023'!N19</f>
-        <v>1</v>
+        <f>rkap!N19</f>
+        <v>1000</v>
       </c>
       <c r="O14" s="5">
-        <f>'td2023'!O19</f>
-        <v>1</v>
+        <f>rkap!O19</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -7565,55 +7565,55 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ref="D15:O15" si="5">SUM(D16:D17)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O15" s="8">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -7622,55 +7622,55 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D16" s="5">
-        <f>'td2023'!D20</f>
-        <v>1</v>
+        <f>rkap!D20</f>
+        <v>1000</v>
       </c>
       <c r="E16" s="5">
-        <f>'td2023'!E20</f>
-        <v>1</v>
+        <f>rkap!E20</f>
+        <v>1000</v>
       </c>
       <c r="F16" s="5">
-        <f>'td2023'!F20</f>
-        <v>1</v>
+        <f>rkap!F20</f>
+        <v>1000</v>
       </c>
       <c r="G16" s="5">
-        <f>'td2023'!G20</f>
-        <v>1</v>
+        <f>rkap!G20</f>
+        <v>1000</v>
       </c>
       <c r="H16" s="5">
-        <f>'td2023'!H20</f>
-        <v>1</v>
+        <f>rkap!H20</f>
+        <v>1000</v>
       </c>
       <c r="I16" s="5">
-        <f>'td2023'!I20</f>
-        <v>1</v>
+        <f>rkap!I20</f>
+        <v>1000</v>
       </c>
       <c r="J16" s="5">
-        <f>'td2023'!J20</f>
-        <v>1</v>
+        <f>rkap!J20</f>
+        <v>1000</v>
       </c>
       <c r="K16" s="5">
-        <f>'td2023'!K20</f>
-        <v>1</v>
+        <f>rkap!K20</f>
+        <v>1000</v>
       </c>
       <c r="L16" s="5">
-        <f>'td2023'!L20</f>
-        <v>1</v>
+        <f>rkap!L20</f>
+        <v>1000</v>
       </c>
       <c r="M16" s="5">
-        <f>'td2023'!M20</f>
-        <v>1</v>
+        <f>rkap!M20</f>
+        <v>1000</v>
       </c>
       <c r="N16" s="5">
-        <f>'td2023'!N20</f>
-        <v>1</v>
+        <f>rkap!N20</f>
+        <v>1000</v>
       </c>
       <c r="O16" s="5">
-        <f>'td2023'!O20</f>
-        <v>1</v>
+        <f>rkap!O20</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -7679,55 +7679,55 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D17" s="5">
-        <f>'td2023'!D21</f>
-        <v>1</v>
+        <f>rkap!D21</f>
+        <v>1000</v>
       </c>
       <c r="E17" s="5">
-        <f>'td2023'!E21</f>
-        <v>1</v>
+        <f>rkap!E21</f>
+        <v>1000</v>
       </c>
       <c r="F17" s="5">
-        <f>'td2023'!F21</f>
-        <v>1</v>
+        <f>rkap!F21</f>
+        <v>1000</v>
       </c>
       <c r="G17" s="5">
-        <f>'td2023'!G21</f>
-        <v>1</v>
+        <f>rkap!G21</f>
+        <v>1000</v>
       </c>
       <c r="H17" s="5">
-        <f>'td2023'!H21</f>
-        <v>1</v>
+        <f>rkap!H21</f>
+        <v>1000</v>
       </c>
       <c r="I17" s="5">
-        <f>'td2023'!I21</f>
-        <v>1</v>
+        <f>rkap!I21</f>
+        <v>1000</v>
       </c>
       <c r="J17" s="5">
-        <f>'td2023'!J21</f>
-        <v>1</v>
+        <f>rkap!J21</f>
+        <v>1000</v>
       </c>
       <c r="K17" s="5">
-        <f>'td2023'!K21</f>
-        <v>1</v>
+        <f>rkap!K21</f>
+        <v>1000</v>
       </c>
       <c r="L17" s="5">
-        <f>'td2023'!L21</f>
-        <v>1</v>
+        <f>rkap!L21</f>
+        <v>1000</v>
       </c>
       <c r="M17" s="5">
-        <f>'td2023'!M21</f>
-        <v>1</v>
+        <f>rkap!M21</f>
+        <v>1000</v>
       </c>
       <c r="N17" s="5">
-        <f>'td2023'!N21</f>
-        <v>1</v>
+        <f>rkap!N21</f>
+        <v>1000</v>
       </c>
       <c r="O17" s="5">
-        <f>'td2023'!O21</f>
-        <v>1</v>
+        <f>rkap!O21</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -7736,55 +7736,55 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ref="D18:O18" si="6">SUM(D19:D20)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O18" s="8">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -7793,55 +7793,55 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D19" s="5">
-        <f>'td2023'!D22</f>
-        <v>1</v>
+        <f>rkap!D22</f>
+        <v>1000</v>
       </c>
       <c r="E19" s="5">
-        <f>'td2023'!E22</f>
-        <v>1</v>
+        <f>rkap!E22</f>
+        <v>1000</v>
       </c>
       <c r="F19" s="5">
-        <f>'td2023'!F22</f>
-        <v>1</v>
+        <f>rkap!F22</f>
+        <v>1000</v>
       </c>
       <c r="G19" s="5">
-        <f>'td2023'!G22</f>
-        <v>1</v>
+        <f>rkap!G22</f>
+        <v>1000</v>
       </c>
       <c r="H19" s="5">
-        <f>'td2023'!H22</f>
-        <v>1</v>
+        <f>rkap!H22</f>
+        <v>1000</v>
       </c>
       <c r="I19" s="5">
-        <f>'td2023'!I22</f>
-        <v>1</v>
+        <f>rkap!I22</f>
+        <v>1000</v>
       </c>
       <c r="J19" s="5">
-        <f>'td2023'!J22</f>
-        <v>1</v>
+        <f>rkap!J22</f>
+        <v>1000</v>
       </c>
       <c r="K19" s="5">
-        <f>'td2023'!K22</f>
-        <v>1</v>
+        <f>rkap!K22</f>
+        <v>1000</v>
       </c>
       <c r="L19" s="5">
-        <f>'td2023'!L22</f>
-        <v>1</v>
+        <f>rkap!L22</f>
+        <v>1000</v>
       </c>
       <c r="M19" s="5">
-        <f>'td2023'!M22</f>
-        <v>1</v>
+        <f>rkap!M22</f>
+        <v>1000</v>
       </c>
       <c r="N19" s="5">
-        <f>'td2023'!N22</f>
-        <v>1</v>
+        <f>rkap!N22</f>
+        <v>1000</v>
       </c>
       <c r="O19" s="5">
-        <f>'td2023'!O22</f>
-        <v>1</v>
+        <f>rkap!O22</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -7850,55 +7850,55 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D20" s="5">
-        <f>'td2023'!D23</f>
-        <v>1</v>
+        <f>rkap!D23</f>
+        <v>1000</v>
       </c>
       <c r="E20" s="5">
-        <f>'td2023'!E23</f>
-        <v>1</v>
+        <f>rkap!E23</f>
+        <v>1000</v>
       </c>
       <c r="F20" s="5">
-        <f>'td2023'!F23</f>
-        <v>1</v>
+        <f>rkap!F23</f>
+        <v>1000</v>
       </c>
       <c r="G20" s="5">
-        <f>'td2023'!G23</f>
-        <v>1</v>
+        <f>rkap!G23</f>
+        <v>1000</v>
       </c>
       <c r="H20" s="5">
-        <f>'td2023'!H23</f>
-        <v>1</v>
+        <f>rkap!H23</f>
+        <v>1000</v>
       </c>
       <c r="I20" s="5">
-        <f>'td2023'!I23</f>
-        <v>1</v>
+        <f>rkap!I23</f>
+        <v>1000</v>
       </c>
       <c r="J20" s="5">
-        <f>'td2023'!J23</f>
-        <v>1</v>
+        <f>rkap!J23</f>
+        <v>1000</v>
       </c>
       <c r="K20" s="5">
-        <f>'td2023'!K23</f>
-        <v>1</v>
+        <f>rkap!K23</f>
+        <v>1000</v>
       </c>
       <c r="L20" s="5">
-        <f>'td2023'!L23</f>
-        <v>1</v>
+        <f>rkap!L23</f>
+        <v>1000</v>
       </c>
       <c r="M20" s="5">
-        <f>'td2023'!M23</f>
-        <v>1</v>
+        <f>rkap!M23</f>
+        <v>1000</v>
       </c>
       <c r="N20" s="5">
-        <f>'td2023'!N23</f>
-        <v>1</v>
+        <f>rkap!N23</f>
+        <v>1000</v>
       </c>
       <c r="O20" s="5">
-        <f>'td2023'!O23</f>
-        <v>1</v>
+        <f>rkap!O23</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -7910,55 +7910,55 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" ref="C22:C31" si="7">SUM(D22:O22)</f>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ref="D22:O22" si="8">SUM(D23:D24)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O22" s="8">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -7967,55 +7967,55 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D23" s="5">
-        <f>'td2023'!D34</f>
-        <v>1</v>
+        <f>rkap!D34</f>
+        <v>1000</v>
       </c>
       <c r="E23" s="5">
-        <f>'td2023'!E34</f>
-        <v>1</v>
+        <f>rkap!E34</f>
+        <v>1000</v>
       </c>
       <c r="F23" s="5">
-        <f>'td2023'!F34</f>
-        <v>1</v>
+        <f>rkap!F34</f>
+        <v>1000</v>
       </c>
       <c r="G23" s="5">
-        <f>'td2023'!G34</f>
-        <v>1</v>
+        <f>rkap!G34</f>
+        <v>1000</v>
       </c>
       <c r="H23" s="5">
-        <f>'td2023'!H34</f>
-        <v>1</v>
+        <f>rkap!H34</f>
+        <v>1000</v>
       </c>
       <c r="I23" s="5">
-        <f>'td2023'!I34</f>
-        <v>1</v>
+        <f>rkap!I34</f>
+        <v>1000</v>
       </c>
       <c r="J23" s="5">
-        <f>'td2023'!J34</f>
-        <v>1</v>
+        <f>rkap!J34</f>
+        <v>1000</v>
       </c>
       <c r="K23" s="5">
-        <f>'td2023'!K34</f>
-        <v>1</v>
+        <f>rkap!K34</f>
+        <v>1000</v>
       </c>
       <c r="L23" s="5">
-        <f>'td2023'!L34</f>
-        <v>1</v>
+        <f>rkap!L34</f>
+        <v>1000</v>
       </c>
       <c r="M23" s="5">
-        <f>'td2023'!M34</f>
-        <v>1</v>
+        <f>rkap!M34</f>
+        <v>1000</v>
       </c>
       <c r="N23" s="5">
-        <f>'td2023'!N34</f>
-        <v>1</v>
+        <f>rkap!N34</f>
+        <v>1000</v>
       </c>
       <c r="O23" s="5">
-        <f>'td2023'!O34</f>
-        <v>1</v>
+        <f>rkap!O34</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -8024,55 +8024,55 @@
       </c>
       <c r="C24" s="11">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D24" s="5">
-        <f>'td2023'!D35</f>
-        <v>1</v>
+        <f>rkap!D35</f>
+        <v>1000</v>
       </c>
       <c r="E24" s="5">
-        <f>'td2023'!E35</f>
-        <v>1</v>
+        <f>rkap!E35</f>
+        <v>1000</v>
       </c>
       <c r="F24" s="5">
-        <f>'td2023'!F35</f>
-        <v>1</v>
+        <f>rkap!F35</f>
+        <v>1000</v>
       </c>
       <c r="G24" s="5">
-        <f>'td2023'!G35</f>
-        <v>1</v>
+        <f>rkap!G35</f>
+        <v>1000</v>
       </c>
       <c r="H24" s="5">
-        <f>'td2023'!H35</f>
-        <v>1</v>
+        <f>rkap!H35</f>
+        <v>1000</v>
       </c>
       <c r="I24" s="5">
-        <f>'td2023'!I35</f>
-        <v>1</v>
+        <f>rkap!I35</f>
+        <v>1000</v>
       </c>
       <c r="J24" s="5">
-        <f>'td2023'!J35</f>
-        <v>1</v>
+        <f>rkap!J35</f>
+        <v>1000</v>
       </c>
       <c r="K24" s="5">
-        <f>'td2023'!K35</f>
-        <v>1</v>
+        <f>rkap!K35</f>
+        <v>1000</v>
       </c>
       <c r="L24" s="5">
-        <f>'td2023'!L35</f>
-        <v>1</v>
+        <f>rkap!L35</f>
+        <v>1000</v>
       </c>
       <c r="M24" s="5">
-        <f>'td2023'!M35</f>
-        <v>1</v>
+        <f>rkap!M35</f>
+        <v>1000</v>
       </c>
       <c r="N24" s="5">
-        <f>'td2023'!N35</f>
-        <v>1</v>
+        <f>rkap!N35</f>
+        <v>1000</v>
       </c>
       <c r="O24" s="5">
-        <f>'td2023'!O35</f>
-        <v>1</v>
+        <f>rkap!O35</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -8081,55 +8081,55 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ref="D25:O25" si="9">SUM(D26:D27)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O25" s="8">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -8138,55 +8138,55 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D26" s="5">
-        <f>'td2023'!D36</f>
-        <v>1</v>
+        <f>rkap!D36</f>
+        <v>1000</v>
       </c>
       <c r="E26" s="5">
-        <f>'td2023'!E36</f>
-        <v>1</v>
+        <f>rkap!E36</f>
+        <v>1000</v>
       </c>
       <c r="F26" s="5">
-        <f>'td2023'!F36</f>
-        <v>1</v>
+        <f>rkap!F36</f>
+        <v>1000</v>
       </c>
       <c r="G26" s="5">
-        <f>'td2023'!G36</f>
-        <v>1</v>
+        <f>rkap!G36</f>
+        <v>1000</v>
       </c>
       <c r="H26" s="5">
-        <f>'td2023'!H36</f>
-        <v>1</v>
+        <f>rkap!H36</f>
+        <v>1000</v>
       </c>
       <c r="I26" s="5">
-        <f>'td2023'!I36</f>
-        <v>1</v>
+        <f>rkap!I36</f>
+        <v>1000</v>
       </c>
       <c r="J26" s="5">
-        <f>'td2023'!J36</f>
-        <v>1</v>
+        <f>rkap!J36</f>
+        <v>1000</v>
       </c>
       <c r="K26" s="5">
-        <f>'td2023'!K36</f>
-        <v>1</v>
+        <f>rkap!K36</f>
+        <v>1000</v>
       </c>
       <c r="L26" s="5">
-        <f>'td2023'!L36</f>
-        <v>1</v>
+        <f>rkap!L36</f>
+        <v>1000</v>
       </c>
       <c r="M26" s="5">
-        <f>'td2023'!M36</f>
-        <v>1</v>
+        <f>rkap!M36</f>
+        <v>1000</v>
       </c>
       <c r="N26" s="5">
-        <f>'td2023'!N36</f>
-        <v>1</v>
+        <f>rkap!N36</f>
+        <v>1000</v>
       </c>
       <c r="O26" s="5">
-        <f>'td2023'!O36</f>
-        <v>1</v>
+        <f>rkap!O36</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -8195,55 +8195,55 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D27" s="5">
-        <f>'td2023'!D37</f>
-        <v>1</v>
+        <f>rkap!D37</f>
+        <v>1000</v>
       </c>
       <c r="E27" s="5">
-        <f>'td2023'!E37</f>
-        <v>1</v>
+        <f>rkap!E37</f>
+        <v>1000</v>
       </c>
       <c r="F27" s="5">
-        <f>'td2023'!F37</f>
-        <v>1</v>
+        <f>rkap!F37</f>
+        <v>1000</v>
       </c>
       <c r="G27" s="5">
-        <f>'td2023'!G37</f>
-        <v>1</v>
+        <f>rkap!G37</f>
+        <v>1000</v>
       </c>
       <c r="H27" s="5">
-        <f>'td2023'!H37</f>
-        <v>1</v>
+        <f>rkap!H37</f>
+        <v>1000</v>
       </c>
       <c r="I27" s="5">
-        <f>'td2023'!I37</f>
-        <v>1</v>
+        <f>rkap!I37</f>
+        <v>1000</v>
       </c>
       <c r="J27" s="5">
-        <f>'td2023'!J37</f>
-        <v>1</v>
+        <f>rkap!J37</f>
+        <v>1000</v>
       </c>
       <c r="K27" s="5">
-        <f>'td2023'!K37</f>
-        <v>1</v>
+        <f>rkap!K37</f>
+        <v>1000</v>
       </c>
       <c r="L27" s="5">
-        <f>'td2023'!L37</f>
-        <v>1</v>
+        <f>rkap!L37</f>
+        <v>1000</v>
       </c>
       <c r="M27" s="5">
-        <f>'td2023'!M37</f>
-        <v>1</v>
+        <f>rkap!M37</f>
+        <v>1000</v>
       </c>
       <c r="N27" s="5">
-        <f>'td2023'!N37</f>
-        <v>1</v>
+        <f>rkap!N37</f>
+        <v>1000</v>
       </c>
       <c r="O27" s="5">
-        <f>'td2023'!O37</f>
-        <v>1</v>
+        <f>rkap!O37</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -8252,55 +8252,55 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="7"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ref="D28:O28" si="10">SUM(D29:D30)</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O28" s="8">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -8309,55 +8309,55 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D29" s="5">
-        <f>'td2023'!D38</f>
-        <v>1</v>
+        <f>rkap!D38</f>
+        <v>1000</v>
       </c>
       <c r="E29" s="5">
-        <f>'td2023'!E38</f>
-        <v>1</v>
+        <f>rkap!E38</f>
+        <v>1000</v>
       </c>
       <c r="F29" s="5">
-        <f>'td2023'!F38</f>
-        <v>1</v>
+        <f>rkap!F38</f>
+        <v>1000</v>
       </c>
       <c r="G29" s="5">
-        <f>'td2023'!G38</f>
-        <v>1</v>
+        <f>rkap!G38</f>
+        <v>1000</v>
       </c>
       <c r="H29" s="5">
-        <f>'td2023'!H38</f>
-        <v>1</v>
+        <f>rkap!H38</f>
+        <v>1000</v>
       </c>
       <c r="I29" s="5">
-        <f>'td2023'!I38</f>
-        <v>1</v>
+        <f>rkap!I38</f>
+        <v>1000</v>
       </c>
       <c r="J29" s="5">
-        <f>'td2023'!J38</f>
-        <v>1</v>
+        <f>rkap!J38</f>
+        <v>1000</v>
       </c>
       <c r="K29" s="5">
-        <f>'td2023'!K38</f>
-        <v>1</v>
+        <f>rkap!K38</f>
+        <v>1000</v>
       </c>
       <c r="L29" s="5">
-        <f>'td2023'!L38</f>
-        <v>1</v>
+        <f>rkap!L38</f>
+        <v>1000</v>
       </c>
       <c r="M29" s="5">
-        <f>'td2023'!M38</f>
-        <v>1</v>
+        <f>rkap!M38</f>
+        <v>1000</v>
       </c>
       <c r="N29" s="5">
-        <f>'td2023'!N38</f>
-        <v>1</v>
+        <f>rkap!N38</f>
+        <v>1000</v>
       </c>
       <c r="O29" s="5">
-        <f>'td2023'!O38</f>
-        <v>1</v>
+        <f>rkap!O38</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -8366,55 +8366,55 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="D30" s="5">
-        <f>'td2023'!D39</f>
-        <v>1</v>
+        <f>rkap!D39</f>
+        <v>1000</v>
       </c>
       <c r="E30" s="5">
-        <f>'td2023'!E39</f>
-        <v>1</v>
+        <f>rkap!E39</f>
+        <v>1000</v>
       </c>
       <c r="F30" s="5">
-        <f>'td2023'!F39</f>
-        <v>1</v>
+        <f>rkap!F39</f>
+        <v>1000</v>
       </c>
       <c r="G30" s="5">
-        <f>'td2023'!G39</f>
-        <v>1</v>
+        <f>rkap!G39</f>
+        <v>1000</v>
       </c>
       <c r="H30" s="5">
-        <f>'td2023'!H39</f>
-        <v>1</v>
+        <f>rkap!H39</f>
+        <v>1000</v>
       </c>
       <c r="I30" s="5">
-        <f>'td2023'!I39</f>
-        <v>1</v>
+        <f>rkap!I39</f>
+        <v>1000</v>
       </c>
       <c r="J30" s="5">
-        <f>'td2023'!J39</f>
-        <v>1</v>
+        <f>rkap!J39</f>
+        <v>1000</v>
       </c>
       <c r="K30" s="5">
-        <f>'td2023'!K39</f>
-        <v>1</v>
+        <f>rkap!K39</f>
+        <v>1000</v>
       </c>
       <c r="L30" s="5">
-        <f>'td2023'!L39</f>
-        <v>1</v>
+        <f>rkap!L39</f>
+        <v>1000</v>
       </c>
       <c r="M30" s="5">
-        <f>'td2023'!M39</f>
-        <v>1</v>
+        <f>rkap!M39</f>
+        <v>1000</v>
       </c>
       <c r="N30" s="5">
-        <f>'td2023'!N39</f>
-        <v>1</v>
+        <f>rkap!N39</f>
+        <v>1000</v>
       </c>
       <c r="O30" s="5">
-        <f>'td2023'!O39</f>
-        <v>1</v>
+        <f>rkap!O39</f>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -8423,55 +8423,55 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="7"/>
-        <v>72</v>
+        <v>72000</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" ref="D31:O31" si="11">D22+D25+D28</f>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="F31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="G31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="I31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="K31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="L31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="M31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="N31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="O31" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -8483,55 +8483,55 @@
       </c>
       <c r="C33" s="8">
         <f>C2+C12+C22</f>
-        <v>72</v>
+        <v>72000</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ref="D33:O33" si="12">SUM(D34:D35)</f>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="F33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="G33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="I33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="J33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="K33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="L33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="M33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="N33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="O33" s="8">
         <f t="shared" si="12"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -8540,55 +8540,55 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" ref="C34:C42" si="13">SUM(D34:O34)</f>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D34" s="5">
         <f>D3+D13+D23</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:O34" si="14">E3+E13+E23</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="14"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -8597,55 +8597,55 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:O35" si="15">D4+D14+D24</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="15"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -8654,55 +8654,55 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>72000</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" ref="D36:O36" si="16">SUM(D37:D38)</f>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="F36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="G36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="I36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="J36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="K36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="L36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="M36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="N36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="O36" s="8">
         <f t="shared" si="16"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -8711,55 +8711,55 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" ref="D37:O37" si="17">D6+D16+D26</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -8768,55 +8768,55 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D38:O38)</f>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:O38" si="18">D7+D17+D27</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="18"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -8825,55 +8825,55 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="13"/>
-        <v>72</v>
+        <v>72000</v>
       </c>
       <c r="D39" s="8">
         <f>SUM(D40:D41)</f>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" ref="E39:O39" si="19">SUM(E40:E41)</f>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="F39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="G39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="H39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="I39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="J39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="K39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="L39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="M39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="N39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
       <c r="O39" s="8">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -8882,55 +8882,55 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D40:O40)</f>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D40" s="5">
         <f>D9+D19+D29</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" ref="E40:O40" si="20">E9+E19+E29</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="20"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
@@ -8939,55 +8939,55 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D41:O41)</f>
-        <v>36</v>
+        <v>36000</v>
       </c>
       <c r="D41" s="5">
         <f>D10+D20+D30</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" ref="E41:O41" si="21">E10+E20+E30</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="F41" s="5">
         <f>F10+F20+F30</f>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="H41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="L41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="M41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="N41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="21"/>
-        <v>3</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -8997,55 +8997,55 @@
       <c r="B42" s="13"/>
       <c r="C42" s="14">
         <f t="shared" si="13"/>
-        <v>216</v>
+        <v>216000</v>
       </c>
       <c r="D42" s="14">
         <f>D33+D36+D39</f>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ref="E42:O42" si="22">E33+E36+E39</f>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="G42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="H42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="I42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="J42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="K42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="L42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="M42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="N42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
       <c r="O42" s="14">
         <f t="shared" si="22"/>
-        <v>18</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -9062,55 +9062,55 @@
       </c>
       <c r="C46" s="8">
         <f t="shared" ref="C46:C55" si="23">SUM(D46:O46)</f>
-        <v>48</v>
+        <v>48000</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ref="D46:O46" si="24">SUM(D47:D48)</f>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="F46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="I46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="J46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="K46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="L46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="M46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="N46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="O46" s="8">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
@@ -9119,55 +9119,55 @@
       </c>
       <c r="C47" s="11">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" ref="D47:O47" si="25">D3+D13</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O47" s="5">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -9176,55 +9176,55 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" ref="D48:O48" si="26">D4+D14</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O48" s="5">
         <f t="shared" si="26"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -9233,55 +9233,55 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>48000</v>
       </c>
       <c r="D49" s="8">
         <f t="shared" ref="D49:O49" si="27">SUM(D50:D51)</f>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="F49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="H49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="I49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="J49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="K49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="L49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="M49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="N49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="O49" s="8">
         <f t="shared" si="27"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -9290,55 +9290,55 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" ref="D50:O50" si="28">D6+D16</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O50" s="5">
         <f t="shared" si="28"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -9347,55 +9347,55 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" ref="D51:O51" si="29">D7+D17</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O51" s="5">
         <f t="shared" si="29"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -9404,55 +9404,55 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" si="23"/>
-        <v>48</v>
+        <v>48000</v>
       </c>
       <c r="D52" s="8">
         <f t="shared" ref="D52:O52" si="30">SUM(D53:D54)</f>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="F52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="G52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="H52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="I52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="J52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="K52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="L52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="M52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="N52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="O52" s="8">
         <f t="shared" si="30"/>
-        <v>4</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -9461,55 +9461,55 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" ref="D53:O53" si="31">D9+D19</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O53" s="5">
         <f t="shared" si="31"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
@@ -9518,55 +9518,55 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="23"/>
-        <v>24</v>
+        <v>24000</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" ref="D54:O54" si="32">D10+D20</f>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="F54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="J54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="K54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="L54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="M54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="N54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="O54" s="5">
         <f t="shared" si="32"/>
-        <v>2</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
@@ -9576,55 +9576,55 @@
       <c r="B55" s="15"/>
       <c r="C55" s="8">
         <f t="shared" si="23"/>
-        <v>144</v>
+        <v>144000</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" ref="D55:O55" si="33">D46+D49+D52</f>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="E55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="F55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="G55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="H55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="I55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="J55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="K55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="L55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="M55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="N55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
       <c r="O55" s="8">
         <f t="shared" si="33"/>
-        <v>12</v>
+        <v>12000</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/excel/RKAP Tempalate Fix.xlsx
+++ b/uploads/excel/RKAP Tempalate Fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7449FC0-7E6B-4E93-8648-6D49D0DC625E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C7CF8-DBC2-4B42-ACDE-9C09A150F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9795" yWindow="2910" windowWidth="14205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rkap" sheetId="1" r:id="rId1"/>
@@ -2135,8 +2135,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -3721,7 +3721,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>17</v>
@@ -3768,7 +3768,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>17</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>17</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>17</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>17</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>17</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -4050,7 +4050,7 @@
     </row>
     <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>17</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>17</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>17</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>17</v>
@@ -4238,7 +4238,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>17</v>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>17</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>17</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>17</v>

--- a/uploads/excel/RKAP Tempalate Fix.xlsx
+++ b/uploads/excel/RKAP Tempalate Fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C7CF8-DBC2-4B42-ACDE-9C09A150F199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A05AD-239F-4851-BF45-F618F5050D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12630" yWindow="3000" windowWidth="14205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rkap" sheetId="1" r:id="rId1"/>
@@ -2135,8 +2135,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>15</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
@@ -2340,7 +2340,7 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>15</v>
@@ -2732,7 +2732,7 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>15</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
@@ -2969,7 +2969,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>16</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>16</v>
@@ -3110,7 +3110,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>16</v>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>16</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -3251,7 +3251,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>16</v>
@@ -3298,7 +3298,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>16</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>16</v>
@@ -3392,7 +3392,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>16</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>16</v>
@@ -3486,7 +3486,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>16</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>16</v>
@@ -3580,7 +3580,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>16</v>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>16</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>

--- a/uploads/excel/RKAP Tempalate Fix.xlsx
+++ b/uploads/excel/RKAP Tempalate Fix.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654A05AD-239F-4851-BF45-F618F5050D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0AE2F-21B3-42AE-96D8-FB832E662D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12630" yWindow="3000" windowWidth="14205" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rkap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_______________________________DAT2">#REF!</definedName>
@@ -1674,7 +1675,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="58">
   <si>
     <t>Year</t>
   </si>
@@ -1801,16 +1802,78 @@
   <si>
     <t>ALL TOTAL</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t>Years</t>
+  </si>
+  <si>
+    <t>ZGMFTA</t>
+  </si>
+  <si>
+    <t>Agu</t>
+  </si>
+  <si>
+    <t>Okt</t>
+  </si>
+  <si>
+    <t>ZGMFTD</t>
+  </si>
+  <si>
+    <t>ZGMFTX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1828,6 +1891,7 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1853,8 +1917,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1864,6 +1936,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,40 +1957,64 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,2350 +2237,4482 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="D1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="22">
+        <v>40010001</v>
+      </c>
+      <c r="D2" s="18">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4">
-        <v>40010001</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O2" s="3">
+      <c r="E2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O2" s="18">
         <v>1000</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
         <v>2023</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="22">
         <v>40012000</v>
       </c>
-      <c r="D3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N3" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="D3" s="18">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="18">
         <v>1000</v>
       </c>
       <c r="P3" s="5"/>
       <c r="Q3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>2023</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="22">
         <v>40020001</v>
       </c>
-      <c r="D4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N4" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="D4" s="18">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="18">
         <v>1000</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>2023</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="22">
         <v>40014200</v>
       </c>
-      <c r="D5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O5" s="3">
+      <c r="D5" s="18">
+        <v>4</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="18">
         <v>1000</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>2023</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="22">
         <v>40000000</v>
       </c>
-      <c r="D6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O6" s="3">
+      <c r="D6" s="18">
+        <v>5</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="18">
         <v>1000</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>2023</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="22">
         <v>40002002</v>
       </c>
-      <c r="D7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O7" s="3">
+      <c r="D7" s="18">
+        <v>6</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="18">
         <v>1000</v>
       </c>
       <c r="P7" s="5"/>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>2023</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="22">
         <v>40000400</v>
       </c>
-      <c r="D8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="D8" s="18">
+        <v>7</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="18">
         <v>1000</v>
       </c>
       <c r="P8" s="5"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>2023</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="22">
         <v>40000403</v>
       </c>
-      <c r="D9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="D9" s="18">
+        <v>8</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="18">
         <v>1000</v>
       </c>
       <c r="P9" s="5"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>2023</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="22">
         <v>40030000</v>
       </c>
-      <c r="D10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="D10" s="18">
+        <v>9</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="18">
         <v>1000</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>2023</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="22">
         <v>40030001</v>
       </c>
-      <c r="D11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N11" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="D11" s="18">
+        <v>10</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="18">
         <v>1000</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>2023</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="22">
         <v>40040000</v>
       </c>
-      <c r="D12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="D12" s="18">
+        <v>11</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="18">
         <v>1000</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
         <v>2023</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="22">
         <v>40040005</v>
       </c>
-      <c r="D13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O13" s="3">
+      <c r="D13" s="18">
+        <v>12</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="18">
         <v>1000</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
         <v>2023</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="22">
+        <v>40041002</v>
+      </c>
+      <c r="D14" s="18">
+        <v>13</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="22">
+        <v>40041000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="22">
+        <v>40043000</v>
+      </c>
+      <c r="D16" s="18">
         <v>15</v>
       </c>
-      <c r="C14" s="4">
+      <c r="E16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="22">
+        <v>40043006</v>
+      </c>
+      <c r="D17" s="18">
+        <v>16</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="22">
+        <v>40010001</v>
+      </c>
+      <c r="D18" s="18">
+        <v>10</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="22">
+        <v>40012000</v>
+      </c>
+      <c r="D19" s="18">
+        <v>20</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="22">
+        <v>40020001</v>
+      </c>
+      <c r="D20" s="18">
+        <v>30</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="22">
+        <v>40014200</v>
+      </c>
+      <c r="D21" s="18">
+        <v>40</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="22">
+        <v>40000000</v>
+      </c>
+      <c r="D22" s="18">
+        <v>50</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="22">
+        <v>40002002</v>
+      </c>
+      <c r="D23" s="18">
+        <v>60</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O23" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="22">
+        <v>40000400</v>
+      </c>
+      <c r="D24" s="18">
+        <v>70</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="22">
+        <v>40000403</v>
+      </c>
+      <c r="D25" s="18">
+        <v>80</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="22">
+        <v>40030000</v>
+      </c>
+      <c r="D26" s="18">
+        <v>90</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="22">
+        <v>40030001</v>
+      </c>
+      <c r="D27" s="18">
+        <v>100</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="22">
+        <v>40040000</v>
+      </c>
+      <c r="D28" s="18">
+        <v>110</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="22">
+        <v>40040005</v>
+      </c>
+      <c r="D29" s="18">
+        <v>111</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="22">
         <v>40041002</v>
       </c>
-      <c r="D14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="D30" s="18">
+        <v>112</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O30" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="22">
         <v>40041000</v>
       </c>
-      <c r="D15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="D31" s="18">
+        <v>113</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="22">
         <v>40043000</v>
       </c>
-      <c r="D16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N16" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="D32" s="18">
+        <v>114</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>2022</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="22">
         <v>40043006</v>
       </c>
-      <c r="D17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="D33" s="18">
+        <v>115</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O33" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="22">
         <v>40010001</v>
       </c>
-      <c r="D18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="D34" s="18">
+        <v>116</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="22">
         <v>40012000</v>
       </c>
-      <c r="D19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="D35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="22">
         <v>40020001</v>
       </c>
-      <c r="D20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="D36" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="22">
         <v>40014200</v>
       </c>
-      <c r="D21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="D37" s="18">
+        <v>3000</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="22">
         <v>40000000</v>
       </c>
-      <c r="D22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="D38" s="18">
+        <v>4000</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="22">
         <v>40002002</v>
       </c>
-      <c r="D23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N23" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="D39" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="22">
         <v>40000400</v>
       </c>
-      <c r="D24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="D40" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="22">
         <v>40000403</v>
       </c>
-      <c r="D25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N25" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="D41" s="18">
+        <v>7000</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="22">
         <v>40030000</v>
       </c>
-      <c r="D26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="D42" s="18">
+        <v>8000</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="22">
         <v>40030001</v>
       </c>
-      <c r="D27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="D43" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="22">
         <v>40040000</v>
       </c>
-      <c r="D28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="D44" s="18">
+        <v>10000</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="22">
         <v>40040005</v>
       </c>
-      <c r="D29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N29" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="D45" s="18">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="22">
         <v>40041002</v>
       </c>
-      <c r="D30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="D46" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="22">
         <v>40041000</v>
       </c>
-      <c r="D31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="D47" s="18">
+        <v>13000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="22">
         <v>40043000</v>
       </c>
-      <c r="D32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="D48" s="18">
+        <v>14000</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="22">
+        <v>2021</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" s="22">
         <v>40043006</v>
       </c>
-      <c r="D33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4">
-        <v>40010001</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N34" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4">
-        <v>40012000</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="4">
-        <v>40020001</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N36" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="4">
-        <v>40014200</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N37" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="4">
-        <v>40000000</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N38" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="4">
-        <v>40002002</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N39" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O39" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="4">
-        <v>40000400</v>
-      </c>
-      <c r="D40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N40" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="4">
-        <v>40000403</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="4">
-        <v>40030000</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="4">
-        <v>40030001</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="4">
-        <v>40040000</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="4">
-        <v>40040005</v>
-      </c>
-      <c r="D45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="4">
-        <v>40041002</v>
-      </c>
-      <c r="D46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="4">
-        <v>40041000</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="4">
-        <v>40043000</v>
-      </c>
-      <c r="D48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>2021</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="4">
-        <v>40043006</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N49" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="D49" s="18">
+        <v>15000</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N49" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O49" s="18">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BD8524-02A1-448E-A191-1708751B616B}">
+  <dimension ref="A4:O48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:O48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="16">
+        <v>40014200</v>
+      </c>
+      <c r="D4" s="18">
+        <v>4</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O4" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="16">
+        <v>40000000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>5</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="16">
+        <v>40002002</v>
+      </c>
+      <c r="D6" s="18">
+        <v>6</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="16">
+        <v>40000400</v>
+      </c>
+      <c r="D7" s="18">
+        <v>7</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="16">
+        <v>40000403</v>
+      </c>
+      <c r="D8" s="18">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="16">
+        <v>40030000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>9</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="16">
+        <v>40030001</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="16">
+        <v>40040000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>11</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="16">
+        <v>40040005</v>
+      </c>
+      <c r="D12" s="18">
+        <v>12</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="16">
+        <v>40041002</v>
+      </c>
+      <c r="D13" s="18">
+        <v>13</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N13" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="16">
+        <v>40041000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="16">
+        <v>40043000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>15</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="16">
+        <v>40043006</v>
+      </c>
+      <c r="D16" s="18">
+        <v>16</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O16" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="16">
+        <v>40010001</v>
+      </c>
+      <c r="D17" s="18">
+        <v>10</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N17" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O17" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="16">
+        <v>40012000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>20</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="16">
+        <v>40020001</v>
+      </c>
+      <c r="D19" s="18">
+        <v>30</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="16">
+        <v>40014200</v>
+      </c>
+      <c r="D20" s="18">
+        <v>40</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="16">
+        <v>40000000</v>
+      </c>
+      <c r="D21" s="18">
+        <v>50</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="16">
+        <v>40002002</v>
+      </c>
+      <c r="D22" s="18">
+        <v>60</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="16">
+        <v>40000400</v>
+      </c>
+      <c r="D23" s="18">
+        <v>70</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N23" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O23" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="16">
+        <v>40000403</v>
+      </c>
+      <c r="D24" s="18">
+        <v>80</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O24" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="16">
+        <v>40030000</v>
+      </c>
+      <c r="D25" s="18">
+        <v>90</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="16">
+        <v>40030001</v>
+      </c>
+      <c r="D26" s="18">
+        <v>100</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N26" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O26" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="16">
+        <v>40040000</v>
+      </c>
+      <c r="D27" s="18">
+        <v>110</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="16">
+        <v>40040005</v>
+      </c>
+      <c r="D28" s="18">
+        <v>111</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N28" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O28" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="16">
+        <v>40041002</v>
+      </c>
+      <c r="D29" s="18">
+        <v>112</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="16">
+        <v>40041000</v>
+      </c>
+      <c r="D30" s="18">
+        <v>113</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O30" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="16">
+        <v>40043000</v>
+      </c>
+      <c r="D31" s="18">
+        <v>114</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O31" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="16">
+        <v>40043006</v>
+      </c>
+      <c r="D32" s="18">
+        <v>115</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="16">
+        <v>40010001</v>
+      </c>
+      <c r="D33" s="18">
+        <v>116</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O33" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="16">
+        <v>40012000</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N34" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O34" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="16">
+        <v>40020001</v>
+      </c>
+      <c r="D35" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O35" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="16">
+        <v>40014200</v>
+      </c>
+      <c r="D36" s="18">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="16">
+        <v>40000000</v>
+      </c>
+      <c r="D37" s="18">
+        <v>4000</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O37" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="16">
+        <v>40002002</v>
+      </c>
+      <c r="D38" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O38" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="16">
+        <v>40000400</v>
+      </c>
+      <c r="D39" s="18">
+        <v>6000</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O39" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="16">
+        <v>40000403</v>
+      </c>
+      <c r="D40" s="18">
+        <v>7000</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O40" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="16">
+        <v>40030000</v>
+      </c>
+      <c r="D41" s="18">
+        <v>8000</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N41" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O41" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="16">
+        <v>40030001</v>
+      </c>
+      <c r="D42" s="18">
+        <v>9000</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N42" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O42" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="16">
+        <v>40040000</v>
+      </c>
+      <c r="D43" s="18">
+        <v>10000</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N43" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="16">
+        <v>40040005</v>
+      </c>
+      <c r="D44" s="18">
+        <v>11000</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N44" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O44" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="16">
+        <v>40041002</v>
+      </c>
+      <c r="D45" s="18">
+        <v>12000</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N45" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O45" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="16">
+        <v>40041000</v>
+      </c>
+      <c r="D46" s="18">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N46" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="16">
+        <v>40043000</v>
+      </c>
+      <c r="D47" s="18">
+        <v>14000</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N47" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>2021</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="16">
+        <v>40043006</v>
+      </c>
+      <c r="D48" s="18">
+        <v>15000</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="H48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="I48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="J48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="K48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="L48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="M48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="N48" s="18">
+        <v>1000</v>
+      </c>
+      <c r="O48" s="18">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C544232B-9EE6-4107-B949-7D1D993F32C0}">
   <dimension ref="A1:O49"/>
   <sheetViews>
@@ -6796,7 +9030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959537F9-50AB-453F-9C39-69EAD84155FD}">
   <dimension ref="A1:O55"/>
   <sheetViews>
@@ -6862,11 +9096,11 @@
       </c>
       <c r="C2" s="8">
         <f t="shared" ref="C2:O2" si="0">SUM(C3:C4)</f>
-        <v>24000</v>
+        <v>22014</v>
       </c>
       <c r="D2" s="8">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8">
         <f t="shared" si="0"/>
@@ -6919,11 +9153,11 @@
       </c>
       <c r="C3" s="5">
         <f>SUM(D3:O3)</f>
-        <v>12000</v>
+        <v>11012</v>
       </c>
       <c r="D3" s="5">
         <f>rkap!D2</f>
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5">
         <f>rkap!E2</f>
@@ -6976,11 +9210,11 @@
       </c>
       <c r="C4" s="5">
         <f>SUM(D4:O4)</f>
-        <v>12000</v>
+        <v>11002</v>
       </c>
       <c r="D4" s="5">
         <f>rkap!D3</f>
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <f>rkap!E3</f>
@@ -7033,11 +9267,11 @@
       </c>
       <c r="C5" s="8">
         <f t="shared" ref="C5:O5" si="1">SUM(C6:C7)</f>
-        <v>24000</v>
+        <v>22007</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>7</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" si="1"/>
@@ -7090,11 +9324,11 @@
       </c>
       <c r="C6" s="5">
         <f>SUM(D6:O6)</f>
-        <v>12000</v>
+        <v>11003</v>
       </c>
       <c r="D6" s="5">
         <f>rkap!D4</f>
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="E6" s="5">
         <f>rkap!E4</f>
@@ -7147,11 +9381,11 @@
       </c>
       <c r="C7" s="5">
         <f>SUM(D7:O7)</f>
-        <v>12000</v>
+        <v>11004</v>
       </c>
       <c r="D7" s="5">
         <f>rkap!D5</f>
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="E7" s="5">
         <f>rkap!E5</f>
@@ -7204,11 +9438,11 @@
       </c>
       <c r="C8" s="8">
         <f t="shared" ref="C8:O8" si="2">SUM(C9:C10)</f>
-        <v>24000</v>
+        <v>22011</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>11</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="2"/>
@@ -7261,11 +9495,11 @@
       </c>
       <c r="C9" s="5">
         <f>SUM(D9:O9)</f>
-        <v>12000</v>
+        <v>11005</v>
       </c>
       <c r="D9" s="5">
         <f>rkap!D6</f>
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="E9" s="5">
         <f>rkap!E6</f>
@@ -7318,11 +9552,11 @@
       </c>
       <c r="C10" s="5">
         <f>SUM(D10:O10)</f>
-        <v>12000</v>
+        <v>11006</v>
       </c>
       <c r="D10" s="5">
         <f>rkap!D7</f>
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E10" s="5">
         <f>rkap!E7</f>
@@ -7394,11 +9628,11 @@
       </c>
       <c r="C12" s="8">
         <f t="shared" ref="C12:C20" si="3">SUM(D12:O12)</f>
-        <v>24000</v>
+        <v>22030</v>
       </c>
       <c r="D12" s="8">
         <f t="shared" ref="D12:O12" si="4">SUM(D13:D14)</f>
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="E12" s="8">
         <f t="shared" si="4"/>
@@ -7451,11 +9685,11 @@
       </c>
       <c r="C13" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11010</v>
       </c>
       <c r="D13" s="5">
         <f>rkap!D18</f>
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
         <f>rkap!E18</f>
@@ -7508,11 +9742,11 @@
       </c>
       <c r="C14" s="11">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11020</v>
       </c>
       <c r="D14" s="5">
         <f>rkap!D19</f>
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="E14" s="5">
         <f>rkap!E19</f>
@@ -7565,11 +9799,11 @@
       </c>
       <c r="C15" s="8">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>22070</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ref="D15:O15" si="5">SUM(D16:D17)</f>
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="E15" s="8">
         <f t="shared" si="5"/>
@@ -7622,11 +9856,11 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11030</v>
       </c>
       <c r="D16" s="5">
         <f>rkap!D20</f>
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E16" s="5">
         <f>rkap!E20</f>
@@ -7679,11 +9913,11 @@
       </c>
       <c r="C17" s="5">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11040</v>
       </c>
       <c r="D17" s="5">
         <f>rkap!D21</f>
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <f>rkap!E21</f>
@@ -7736,11 +9970,11 @@
       </c>
       <c r="C18" s="8">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>22110</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ref="D18:O18" si="6">SUM(D19:D20)</f>
-        <v>2000</v>
+        <v>110</v>
       </c>
       <c r="E18" s="8">
         <f t="shared" si="6"/>
@@ -7793,11 +10027,11 @@
       </c>
       <c r="C19" s="5">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11050</v>
       </c>
       <c r="D19" s="5">
         <f>rkap!D22</f>
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E19" s="5">
         <f>rkap!E22</f>
@@ -7850,11 +10084,11 @@
       </c>
       <c r="C20" s="5">
         <f t="shared" si="3"/>
-        <v>12000</v>
+        <v>11060</v>
       </c>
       <c r="D20" s="5">
         <f>rkap!D23</f>
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="E20" s="5">
         <f>rkap!E23</f>
@@ -7910,11 +10144,11 @@
       </c>
       <c r="C22" s="8">
         <f t="shared" ref="C22:C31" si="7">SUM(D22:O22)</f>
-        <v>24000</v>
+        <v>23116</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ref="D22:O22" si="8">SUM(D23:D24)</f>
-        <v>2000</v>
+        <v>1116</v>
       </c>
       <c r="E22" s="8">
         <f t="shared" si="8"/>
@@ -7967,11 +10201,11 @@
       </c>
       <c r="C23" s="11">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>11116</v>
       </c>
       <c r="D23" s="5">
         <f>rkap!D34</f>
-        <v>1000</v>
+        <v>116</v>
       </c>
       <c r="E23" s="5">
         <f>rkap!E34</f>
@@ -8081,11 +10315,11 @@
       </c>
       <c r="C25" s="8">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ref="D25:O25" si="9">SUM(D26:D27)</f>
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E25" s="8">
         <f t="shared" si="9"/>
@@ -8138,11 +10372,11 @@
       </c>
       <c r="C26" s="5">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="D26" s="5">
         <f>rkap!D36</f>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="5">
         <f>rkap!E36</f>
@@ -8195,11 +10429,11 @@
       </c>
       <c r="C27" s="5">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="D27" s="5">
         <f>rkap!D37</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E27" s="5">
         <f>rkap!E37</f>
@@ -8252,11 +10486,11 @@
       </c>
       <c r="C28" s="8">
         <f t="shared" si="7"/>
-        <v>24000</v>
+        <v>31000</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ref="D28:O28" si="10">SUM(D29:D30)</f>
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="E28" s="8">
         <f t="shared" si="10"/>
@@ -8309,11 +10543,11 @@
       </c>
       <c r="C29" s="5">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="D29" s="5">
         <f>rkap!D38</f>
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="E29" s="5">
         <f>rkap!E38</f>
@@ -8366,11 +10600,11 @@
       </c>
       <c r="C30" s="5">
         <f t="shared" si="7"/>
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="D30" s="5">
         <f>rkap!D39</f>
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="E30" s="5">
         <f>rkap!E39</f>
@@ -8423,11 +10657,11 @@
       </c>
       <c r="C31" s="8">
         <f t="shared" si="7"/>
-        <v>72000</v>
+        <v>81116</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" ref="D31:O31" si="11">D22+D25+D28</f>
-        <v>6000</v>
+        <v>15116</v>
       </c>
       <c r="E31" s="8">
         <f t="shared" si="11"/>
@@ -8483,11 +10717,11 @@
       </c>
       <c r="C33" s="8">
         <f>C2+C12+C22</f>
-        <v>72000</v>
+        <v>67160</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ref="D33:O33" si="12">SUM(D34:D35)</f>
-        <v>6000</v>
+        <v>1160</v>
       </c>
       <c r="E33" s="8">
         <f t="shared" si="12"/>
@@ -8540,11 +10774,11 @@
       </c>
       <c r="C34" s="11">
         <f t="shared" ref="C34:C42" si="13">SUM(D34:O34)</f>
-        <v>36000</v>
+        <v>33138</v>
       </c>
       <c r="D34" s="5">
         <f>D3+D13+D23</f>
-        <v>3000</v>
+        <v>138</v>
       </c>
       <c r="E34" s="5">
         <f t="shared" ref="E34:O34" si="14">E3+E13+E23</f>
@@ -8597,11 +10831,11 @@
       </c>
       <c r="C35" s="11">
         <f t="shared" si="13"/>
-        <v>36000</v>
+        <v>34022</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" ref="D35:O35" si="15">D4+D14+D24</f>
-        <v>3000</v>
+        <v>1022</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" si="15"/>
@@ -8654,11 +10888,11 @@
       </c>
       <c r="C36" s="8">
         <f t="shared" si="13"/>
-        <v>72000</v>
+        <v>71077</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" ref="D36:O36" si="16">SUM(D37:D38)</f>
-        <v>6000</v>
+        <v>5077</v>
       </c>
       <c r="E36" s="8">
         <f t="shared" si="16"/>
@@ -8711,11 +10945,11 @@
       </c>
       <c r="C37" s="5">
         <f t="shared" si="13"/>
-        <v>36000</v>
+        <v>35033</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" ref="D37:O37" si="17">D6+D16+D26</f>
-        <v>3000</v>
+        <v>2033</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="17"/>
@@ -8768,11 +11002,11 @@
       </c>
       <c r="C38" s="5">
         <f>SUM(D38:O38)</f>
-        <v>36000</v>
+        <v>36044</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:O38" si="18">D7+D17+D27</f>
-        <v>3000</v>
+        <v>3044</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="18"/>
@@ -8825,11 +11059,11 @@
       </c>
       <c r="C39" s="8">
         <f t="shared" si="13"/>
-        <v>72000</v>
+        <v>75121</v>
       </c>
       <c r="D39" s="8">
         <f>SUM(D40:D41)</f>
-        <v>6000</v>
+        <v>9121</v>
       </c>
       <c r="E39" s="8">
         <f t="shared" ref="E39:O39" si="19">SUM(E40:E41)</f>
@@ -8882,11 +11116,11 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(D40:O40)</f>
-        <v>36000</v>
+        <v>37055</v>
       </c>
       <c r="D40" s="5">
         <f>D9+D19+D29</f>
-        <v>3000</v>
+        <v>4055</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" ref="E40:O40" si="20">E9+E19+E29</f>
@@ -8939,11 +11173,11 @@
       </c>
       <c r="C41" s="5">
         <f>SUM(D41:O41)</f>
-        <v>36000</v>
+        <v>38066</v>
       </c>
       <c r="D41" s="5">
         <f>D10+D20+D30</f>
-        <v>3000</v>
+        <v>5066</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" ref="E41:O41" si="21">E10+E20+E30</f>
@@ -8997,11 +11231,11 @@
       <c r="B42" s="13"/>
       <c r="C42" s="14">
         <f t="shared" si="13"/>
-        <v>216000</v>
+        <v>213358</v>
       </c>
       <c r="D42" s="14">
         <f>D33+D36+D39</f>
-        <v>18000</v>
+        <v>15358</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ref="E42:O42" si="22">E33+E36+E39</f>
@@ -9062,11 +11296,11 @@
       </c>
       <c r="C46" s="8">
         <f t="shared" ref="C46:C55" si="23">SUM(D46:O46)</f>
-        <v>48000</v>
+        <v>44044</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ref="D46:O46" si="24">SUM(D47:D48)</f>
-        <v>4000</v>
+        <v>44</v>
       </c>
       <c r="E46" s="8">
         <f t="shared" si="24"/>
@@ -9119,11 +11353,11 @@
       </c>
       <c r="C47" s="11">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22022</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" ref="D47:O47" si="25">D3+D13</f>
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="25"/>
@@ -9176,11 +11410,11 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22022</v>
       </c>
       <c r="D48" s="5">
         <f t="shared" ref="D48:O48" si="26">D4+D14</f>
-        <v>2000</v>
+        <v>22</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="26"/>
@@ -9233,11 +11467,11 @@
       </c>
       <c r="C49" s="8">
         <f t="shared" si="23"/>
-        <v>48000</v>
+        <v>44077</v>
       </c>
       <c r="D49" s="8">
         <f t="shared" ref="D49:O49" si="27">SUM(D50:D51)</f>
-        <v>4000</v>
+        <v>77</v>
       </c>
       <c r="E49" s="8">
         <f t="shared" si="27"/>
@@ -9290,11 +11524,11 @@
       </c>
       <c r="C50" s="5">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22033</v>
       </c>
       <c r="D50" s="5">
         <f t="shared" ref="D50:O50" si="28">D6+D16</f>
-        <v>2000</v>
+        <v>33</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="28"/>
@@ -9347,11 +11581,11 @@
       </c>
       <c r="C51" s="5">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22044</v>
       </c>
       <c r="D51" s="5">
         <f t="shared" ref="D51:O51" si="29">D7+D17</f>
-        <v>2000</v>
+        <v>44</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="29"/>
@@ -9404,11 +11638,11 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" si="23"/>
-        <v>48000</v>
+        <v>44121</v>
       </c>
       <c r="D52" s="8">
         <f t="shared" ref="D52:O52" si="30">SUM(D53:D54)</f>
-        <v>4000</v>
+        <v>121</v>
       </c>
       <c r="E52" s="8">
         <f t="shared" si="30"/>
@@ -9461,11 +11695,11 @@
       </c>
       <c r="C53" s="5">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22055</v>
       </c>
       <c r="D53" s="5">
         <f t="shared" ref="D53:O53" si="31">D9+D19</f>
-        <v>2000</v>
+        <v>55</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="31"/>
@@ -9518,11 +11752,11 @@
       </c>
       <c r="C54" s="5">
         <f t="shared" si="23"/>
-        <v>24000</v>
+        <v>22066</v>
       </c>
       <c r="D54" s="5">
         <f t="shared" ref="D54:O54" si="32">D10+D20</f>
-        <v>2000</v>
+        <v>66</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="32"/>
@@ -9570,17 +11804,17 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="19"/>
       <c r="C55" s="8">
         <f t="shared" si="23"/>
-        <v>144000</v>
+        <v>132242</v>
       </c>
       <c r="D55" s="8">
         <f t="shared" ref="D55:O55" si="33">D46+D49+D52</f>
-        <v>12000</v>
+        <v>242</v>
       </c>
       <c r="E55" s="8">
         <f t="shared" si="33"/>

--- a/uploads/excel/RKAP Tempalate Fix.xlsx
+++ b/uploads/excel/RKAP Tempalate Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magang\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD0AE2F-21B3-42AE-96D8-FB832E662D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FEE1BE-2905-4051-B44A-35DE4D1A3676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2001,20 +2001,17 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2237,8 +2234,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2249,60 +2246,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B2" s="22" t="s">
+      <c r="A2" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="17">
         <v>40010001</v>
       </c>
       <c r="D2" s="18">
@@ -2345,13 +2342,13 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="17">
         <v>40012000</v>
       </c>
       <c r="D3" s="18">
@@ -2394,13 +2391,13 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="17">
         <v>40020001</v>
       </c>
       <c r="D4" s="18">
@@ -2443,13 +2440,13 @@
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B5" s="22" t="s">
+      <c r="A5" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="17">
         <v>40014200</v>
       </c>
       <c r="D5" s="18">
@@ -2492,13 +2489,13 @@
       <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B6" s="22" t="s">
+      <c r="A6" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="17">
         <v>40000000</v>
       </c>
       <c r="D6" s="18">
@@ -2541,13 +2538,13 @@
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B7" s="22" t="s">
+      <c r="A7" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="17">
         <v>40002002</v>
       </c>
       <c r="D7" s="18">
@@ -2590,13 +2587,13 @@
       <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="17">
         <v>40000400</v>
       </c>
       <c r="D8" s="18">
@@ -2639,13 +2636,13 @@
       <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="17">
         <v>40000403</v>
       </c>
       <c r="D9" s="18">
@@ -2688,13 +2685,13 @@
       <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="17">
         <v>40030000</v>
       </c>
       <c r="D10" s="18">
@@ -2737,13 +2734,13 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="17">
         <v>40030001</v>
       </c>
       <c r="D11" s="18">
@@ -2786,13 +2783,13 @@
       <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="17">
         <v>40040000</v>
       </c>
       <c r="D12" s="18">
@@ -2835,13 +2832,13 @@
       <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="17">
         <v>40040005</v>
       </c>
       <c r="D13" s="18">
@@ -2884,13 +2881,13 @@
       <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="17">
         <v>40041002</v>
       </c>
       <c r="D14" s="18">
@@ -2931,13 +2928,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B15" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="17">
         <v>40041000</v>
       </c>
       <c r="D15" s="18">
@@ -2978,13 +2975,13 @@
       </c>
     </row>
     <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="17">
         <v>40043000</v>
       </c>
       <c r="D16" s="18">
@@ -3025,13 +3022,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22">
-        <v>2023</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="17">
         <v>40043006</v>
       </c>
       <c r="D17" s="18">
@@ -3072,13 +3069,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="17">
         <v>40010001</v>
       </c>
       <c r="D18" s="18">
@@ -3119,13 +3116,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B19" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="17">
         <v>40012000</v>
       </c>
       <c r="D19" s="18">
@@ -3166,13 +3163,13 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="17">
         <v>40020001</v>
       </c>
       <c r="D20" s="18">
@@ -3213,13 +3210,13 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B21" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="17">
         <v>40014200</v>
       </c>
       <c r="D21" s="18">
@@ -3260,13 +3257,13 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="17">
         <v>40000000</v>
       </c>
       <c r="D22" s="18">
@@ -3307,13 +3304,13 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="22">
+      <c r="C23" s="17">
         <v>40002002</v>
       </c>
       <c r="D23" s="18">
@@ -3354,13 +3351,13 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="22">
+      <c r="C24" s="17">
         <v>40000400</v>
       </c>
       <c r="D24" s="18">
@@ -3401,13 +3398,13 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="22">
+      <c r="C25" s="17">
         <v>40000403</v>
       </c>
       <c r="D25" s="18">
@@ -3448,13 +3445,13 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="22">
+      <c r="C26" s="17">
         <v>40030000</v>
       </c>
       <c r="D26" s="18">
@@ -3495,13 +3492,13 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B27" s="22" t="s">
+      <c r="A27" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="22">
+      <c r="C27" s="17">
         <v>40030001</v>
       </c>
       <c r="D27" s="18">
@@ -3542,13 +3539,13 @@
       </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28" s="17">
         <v>40040000</v>
       </c>
       <c r="D28" s="18">
@@ -3589,13 +3586,13 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="22">
+      <c r="C29" s="17">
         <v>40040005</v>
       </c>
       <c r="D29" s="18">
@@ -3636,13 +3633,13 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="17">
         <v>40041002</v>
       </c>
       <c r="D30" s="18">
@@ -3683,13 +3680,13 @@
       </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="17">
         <v>40041000</v>
       </c>
       <c r="D31" s="18">
@@ -3730,13 +3727,13 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B32" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="22">
+      <c r="C32" s="17">
         <v>40043000</v>
       </c>
       <c r="D32" s="18">
@@ -3777,13 +3774,13 @@
       </c>
     </row>
     <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22">
-        <v>2022</v>
-      </c>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="17">
         <v>40043006</v>
       </c>
       <c r="D33" s="18">
@@ -3824,13 +3821,13 @@
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="17">
         <v>40010001</v>
       </c>
       <c r="D34" s="18">
@@ -3871,13 +3868,13 @@
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="17">
         <v>40012000</v>
       </c>
       <c r="D35" s="18">
@@ -3918,13 +3915,13 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B36" s="22" t="s">
+      <c r="A36" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="22">
+      <c r="C36" s="17">
         <v>40020001</v>
       </c>
       <c r="D36" s="18">
@@ -3965,13 +3962,13 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="22">
+      <c r="C37" s="17">
         <v>40014200</v>
       </c>
       <c r="D37" s="18">
@@ -4012,13 +4009,13 @@
       </c>
     </row>
     <row r="38" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="22">
+      <c r="C38" s="17">
         <v>40000000</v>
       </c>
       <c r="D38" s="18">
@@ -4059,13 +4056,13 @@
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="17">
         <v>40002002</v>
       </c>
       <c r="D39" s="18">
@@ -4106,13 +4103,13 @@
       </c>
     </row>
     <row r="40" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B40" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="17">
         <v>40000400</v>
       </c>
       <c r="D40" s="18">
@@ -4153,13 +4150,13 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B41" s="22" t="s">
+      <c r="A41" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C41" s="22">
+      <c r="C41" s="17">
         <v>40000403</v>
       </c>
       <c r="D41" s="18">
@@ -4200,13 +4197,13 @@
       </c>
     </row>
     <row r="42" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B42" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="22">
+      <c r="C42" s="17">
         <v>40030000</v>
       </c>
       <c r="D42" s="18">
@@ -4247,13 +4244,13 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B43" s="22" t="s">
+      <c r="A43" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="22">
+      <c r="C43" s="17">
         <v>40030001</v>
       </c>
       <c r="D43" s="18">
@@ -4294,13 +4291,13 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B44" s="22" t="s">
+      <c r="A44" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B44" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="17">
         <v>40040000</v>
       </c>
       <c r="D44" s="18">
@@ -4341,13 +4338,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B45" s="22" t="s">
+      <c r="A45" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B45" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="22">
+      <c r="C45" s="17">
         <v>40040005</v>
       </c>
       <c r="D45" s="18">
@@ -4388,13 +4385,13 @@
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B46" s="22" t="s">
+      <c r="A46" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B46" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="17">
         <v>40041002</v>
       </c>
       <c r="D46" s="18">
@@ -4435,13 +4432,13 @@
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="17">
         <v>40041000</v>
       </c>
       <c r="D47" s="18">
@@ -4482,13 +4479,13 @@
       </c>
     </row>
     <row r="48" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B48" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="17">
         <v>40043000</v>
       </c>
       <c r="D48" s="18">
@@ -4529,13 +4526,13 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>2021</v>
-      </c>
-      <c r="B49" s="23" t="s">
+      <c r="A49" s="17">
+        <v>2024</v>
+      </c>
+      <c r="B49" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="17">
         <v>40043006</v>
       </c>
       <c r="D49" s="18">
@@ -11804,10 +11801,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B55" s="19"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="8">
         <f t="shared" si="23"/>
         <v>132242</v>
